--- a/trunk/toolbox_data/species/translate_user.xlsx
+++ b/trunk/toolbox_data/species/translate_user.xlsx
@@ -19,22 +19,386 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="121">
+  <si>
+    <t>Actinocyclus octonarius v. crassus</t>
+  </si>
+  <si>
+    <t>Actinocyclus octonarius var. crassus</t>
+  </si>
+  <si>
+    <t>Actinocyclus octonarius v. octonarius</t>
+  </si>
+  <si>
+    <t>Actinocyclus octonarius var. octonarius</t>
+  </si>
+  <si>
+    <t>Actinocyclus octonarius v. tenellus</t>
+  </si>
+  <si>
+    <t>Actinocyclus octonarius var. tenellus</t>
+  </si>
+  <si>
+    <t>Amphiprora paludosa v. paludosa</t>
+  </si>
+  <si>
+    <t>Amphiprora paludosa var. paludosa</t>
+  </si>
+  <si>
+    <t>Aphanothece paralleliformis</t>
+  </si>
+  <si>
+    <t>Aphanothece parallelliformis</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata v. angustissima</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata var. angustissima</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata v. granulata</t>
+  </si>
+  <si>
+    <t>Aulacoseira granulata var. granulata</t>
+  </si>
+  <si>
+    <t>Chaetoceros anastomosans v. externa</t>
+  </si>
+  <si>
+    <t>Chaetoceros anastomosans var. externa</t>
+  </si>
+  <si>
+    <t>Chaetoceros ceratosporus v. ceratosporus</t>
+  </si>
+  <si>
+    <t>Chaetoceros ceratosporus var. ceratosporus</t>
+  </si>
+  <si>
+    <t>Chaetoceros didymus v. anglica</t>
+  </si>
+  <si>
+    <t>Chaetoceros didymus var. anglica</t>
+  </si>
+  <si>
+    <t>Chaetoceros didymus v. didymus</t>
+  </si>
+  <si>
+    <t>Chaetoceros didymus var. didymus</t>
+  </si>
+  <si>
+    <t>Chaetoceros didymus v. protuberans</t>
+  </si>
+  <si>
+    <t>Chaetoceros didymus var. protuberans</t>
+  </si>
+  <si>
+    <t>Chaetoceros subtilis v. subtilis</t>
+  </si>
+  <si>
+    <t>Chaetoceros subtilis var. subtilis</t>
+  </si>
+  <si>
+    <t>Chaetoceros throndsenii v. throndsenii</t>
+  </si>
+  <si>
+    <t>Chaetoceros throndsenii var. throndsenii</t>
+  </si>
+  <si>
+    <t>Closterium acutum v. acutum</t>
+  </si>
+  <si>
+    <t>Closterium acutum var. acutum</t>
+  </si>
+  <si>
+    <t>Closterium acutum v. variabile</t>
+  </si>
+  <si>
+    <t>Closterium acutum var. variabile</t>
+  </si>
+  <si>
+    <t>Cocconeis placentula v. placentula</t>
+  </si>
+  <si>
+    <t>Cocconeis placentula var. placentula</t>
+  </si>
+  <si>
+    <t>Cocconeis scutellum v. scutellum</t>
+  </si>
+  <si>
+    <t>Cocconeis scutellum var. scutellum</t>
+  </si>
+  <si>
+    <t>Desmodesmus armatus v. armatus</t>
+  </si>
+  <si>
+    <t>Desmodesmus armatus var. armatus</t>
+  </si>
+  <si>
+    <t>Desmodesmus armatus v. bicaudatus</t>
+  </si>
+  <si>
+    <t>Desmodesmus armatus var. bicaudatus</t>
+  </si>
+  <si>
+    <t>Desmodesmus armatus v. spinosus</t>
+  </si>
+  <si>
+    <t>Desmodesmus armatus var. spinosus</t>
+  </si>
+  <si>
+    <t>Desmodesmus denticulatus v. denticulatus</t>
+  </si>
+  <si>
+    <t>Desmodesmus denticulatus var. denticulatus</t>
+  </si>
+  <si>
+    <t>Desmodesmus denticulatus v. linearis</t>
+  </si>
+  <si>
+    <t>Desmodesmus denticulatus var. linearis</t>
+  </si>
+  <si>
+    <t>Desmodesmus opoliensis v. opoliensis</t>
+  </si>
+  <si>
+    <t>Desmodesmus opoliensis var. opoliensis</t>
+  </si>
+  <si>
+    <t>Diatoma vulgaris v. vulgaris</t>
+  </si>
+  <si>
+    <t>Diatoma vulgaris var. vulgaris</t>
+  </si>
+  <si>
+    <t>Fragilaria capucina v. capucina</t>
+  </si>
+  <si>
+    <t>Fragilaria capucina var. capucina</t>
+  </si>
+  <si>
+    <t>Gomphonema olivaceum v. olivaceum</t>
+  </si>
+  <si>
+    <t>Gomphonema olivaceum var. olivaceum</t>
+  </si>
+  <si>
+    <t>Heterocapsa arctica ssp. frigida</t>
+  </si>
+  <si>
+    <t>Lagerheimia longiseta v. longiseta</t>
+  </si>
+  <si>
+    <t>Lagerheimia longiseta var. longiseta</t>
+  </si>
+  <si>
+    <t>Licmophora gracilis v. gracilis</t>
+  </si>
+  <si>
+    <t>Licmophora gracilis var. gracilis</t>
+  </si>
+  <si>
+    <t>Mastogloia smithii v. smithii</t>
+  </si>
+  <si>
+    <t>Mastogloia smithii var. smithii</t>
+  </si>
+  <si>
+    <t>Meridion circulare v. circulare</t>
+  </si>
+  <si>
+    <t>Meridion circulare var. circulare</t>
+  </si>
+  <si>
+    <t>Navicula capitata v. capitata</t>
+  </si>
+  <si>
+    <t>Navicula capitata var. capitata</t>
+  </si>
+  <si>
+    <t>Navicula capitata v. hungarica</t>
+  </si>
+  <si>
+    <t>Navicula capitata var. hungarica</t>
+  </si>
+  <si>
+    <t>Navicula peregrina v. peregrina</t>
+  </si>
+  <si>
+    <t>Navicula peregrina var. peregrina</t>
+  </si>
+  <si>
+    <t>Navicula transitans v. deresa f. delicatula</t>
+  </si>
+  <si>
+    <t>Navicula transitans var. derasa f. delicatula</t>
+  </si>
+  <si>
+    <t>Navicula transitans v. transitans</t>
+  </si>
+  <si>
+    <t>Navicula transitans var. transitans</t>
+  </si>
+  <si>
+    <t>Navicula viridula v. viridula</t>
+  </si>
+  <si>
+    <t>Navicula viridula var. viridula</t>
+  </si>
+  <si>
+    <t>Nitzschia acicularis v. acicularis</t>
+  </si>
+  <si>
+    <t>Nitzschia acicularis var. acicularis</t>
+  </si>
+  <si>
+    <t>Pediastrum angulosum v. angulosum</t>
+  </si>
+  <si>
+    <t>Pediastrum angulosum var. angulosum</t>
+  </si>
+  <si>
+    <t>Pediastrum boryanum v. boryanum</t>
+  </si>
+  <si>
+    <t>Pediastrum boryanum</t>
+  </si>
+  <si>
+    <t>Pediastrum boryanum v. longicorne</t>
+  </si>
+  <si>
+    <t>Pediastrum boryanum var. longicorne</t>
+  </si>
+  <si>
+    <t>Pediastrum duplex v. duplex</t>
+  </si>
+  <si>
+    <t>Pediastrum duplex var. duplex</t>
+  </si>
+  <si>
+    <t>Prorocentrum redfieldii</t>
+  </si>
+  <si>
+    <t>Prorocentrum redfeldii</t>
+  </si>
+  <si>
+    <t>Rhodomonas lacustris v. lacustris</t>
+  </si>
+  <si>
+    <t>Rhodomonas lacustris var. lacustris</t>
+  </si>
+  <si>
+    <t>Rhodomonas lacustris v. nannoplanctica</t>
+  </si>
+  <si>
+    <t>Rhodomonas lacustris var. nannoplanctica</t>
+  </si>
+  <si>
+    <t>Scenedesmus arcuatus v. arcuatus</t>
+  </si>
+  <si>
+    <t>Scenedesmus arcuatus var. arcuatus</t>
+  </si>
+  <si>
+    <t>Staurosira construens v. binodis</t>
+  </si>
+  <si>
+    <t>Staurosira construens var. binodis</t>
+  </si>
+  <si>
+    <t>Staurosira construens v. construens</t>
+  </si>
+  <si>
+    <t>Staurosira construens var. construens</t>
+  </si>
+  <si>
+    <t>Staurosira construens v. venter</t>
+  </si>
+  <si>
+    <t>Staurosira construens var. venter</t>
+  </si>
+  <si>
+    <t>Synedra acus v. acus</t>
+  </si>
+  <si>
+    <t>Synedra acus var. acus</t>
+  </si>
+  <si>
+    <t>Synedra ulna v. ulna</t>
+  </si>
+  <si>
+    <t>Synedra ulna var. ulna</t>
+  </si>
+  <si>
+    <t>Thalassiosira hyperborea v. pelagica</t>
+  </si>
+  <si>
+    <t>Thalassiosira hyperborea var. pelagica</t>
+  </si>
+  <si>
+    <t>Centrales</t>
+  </si>
+  <si>
+    <t>Coscinodiscophyceae</t>
+  </si>
+  <si>
+    <t>Craspedophyceae</t>
+  </si>
+  <si>
+    <t>Choanoflagellidea</t>
+  </si>
+  <si>
+    <t>Pennales</t>
+  </si>
+  <si>
+    <t>Bacillariophyceae</t>
+  </si>
+  <si>
+    <t>Unicells</t>
+  </si>
+  <si>
+    <t>Flagellates</t>
+  </si>
   <si>
     <t>Scientific name (translate from)</t>
   </si>
   <si>
     <t>Scientific name (translate to)</t>
+  </si>
+  <si>
+    <t>Flagellates species incertae sedis</t>
+  </si>
+  <si>
+    <t>Unicells species incertae sedis</t>
+  </si>
+  <si>
+    <t>Eukaryotic picoplankton</t>
+  </si>
+  <si>
+    <t>Eukarotic picoplankton species incertae sedis</t>
+  </si>
+  <si>
+    <t>Flagellate</t>
+  </si>
+  <si>
+    <t>Unicell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,8 +424,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,11 +758,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -407,11 +770,959 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>67</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>103</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1"/>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="1"/>
+      <c r="B120" s="1"/>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="1"/>
+      <c r="B122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
